--- a/results/sofa_plot_data.xlsx
+++ b/results/sofa_plot_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Documents/Projekte/Boston Celi/1 Causal Inference/mit-sofa-components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Documents/Projekte/Boston Celi/1 Causal Inference/mit-sofa-components/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C4D0D1-5F2C-374D-84B1-634B6FF59DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBC4D98-44F2-F64C-AA10-FBD1222BE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="3020" windowWidth="28040" windowHeight="17440" xr2:uid="{24F87F31-B556-524D-A8AD-633D1F076BAC}"/>
+    <workbookView xWindow="14460" yWindow="3020" windowWidth="20100" windowHeight="17440" xr2:uid="{24F87F31-B556-524D-A8AD-633D1F076BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BA9D84-ECD6-F041-A83A-74A451E01A2B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
